--- a/QA/testcases/Patient/Patient_Reg_NewFundV_Denied_Yes.xlsx
+++ b/QA/testcases/Patient/Patient_Reg_NewFundV_Denied_Yes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="27465" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -576,9 +576,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -627,81 +627,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,6 +641,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -723,9 +693,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,14 +717,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,49 +762,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,7 +876,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,121 +912,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,6 +980,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -990,6 +1029,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1014,64 +1068,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,130 +1089,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1599,8 +1599,8 @@
   <sheetPr/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2171,7 +2171,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>77</v>
@@ -2256,11 +2256,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30 C2:C29 C31:C35">
+      <formula1>DataList!$A$2:$A$12</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B35">
       <formula1>DataList!$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C35">
-      <formula1>DataList!$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
